--- a/public-flutter/assets/assets/file.xlsx
+++ b/public-flutter/assets/assets/file.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VS Flutter\inventory\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="CCDC" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>Đơn vị : CÔNG TY LIÊN DOANH TNHH NIPPON EXPRESS (VIỆT NAM)</t>
   </si>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>Đã kiểm kê Công cụ dụng cụ, kết quả như sau :</t>
+  </si>
+  <si>
+    <t>Ngày Kiểm kê
+(Scaned Date)</t>
   </si>
 </sst>
 </file>
@@ -338,15 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -354,29 +349,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -401,38 +378,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -443,7 +396,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,38 +456,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -761,206 +734,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="16" style="34" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="40" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="40" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="40" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="40"/>
+    <col min="1" max="1" width="8.140625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="16" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="23" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-    </row>
-    <row r="2" spans="1:11" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="I2" s="32" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:11" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="39"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="10"/>
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="39"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="D7" s="18" t="s">
+      <c r="A7" s="10"/>
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="39"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="D8" s="18" t="s">
+      <c r="A8" s="10"/>
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="39"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="D9" s="18" t="s">
+      <c r="A9" s="10"/>
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="39"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="39"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -976,17 +952,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" style="3" customWidth="1"/>
@@ -1004,160 +980,160 @@
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="6"/>
       <c r="E2" s="3"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="7"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3"/>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3"/>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3"/>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
@@ -1166,36 +1142,39 @@
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:12" s="40" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:12" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/public-flutter/assets/assets/file.xlsx
+++ b/public-flutter/assets/assets/file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>Đơn vị : CÔNG TY LIÊN DOANH TNHH NIPPON EXPRESS (VIỆT NAM)</t>
   </si>
@@ -126,6 +126,12 @@
   <si>
     <t>Ngày Kiểm kê
 (Scaned Date)</t>
+  </si>
+  <si>
+    <t>Địa điểm cũ</t>
+  </si>
+  <si>
+    <t>Người sử dụng cũ</t>
   </si>
 </sst>
 </file>
@@ -335,7 +341,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -395,6 +401,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -732,11 +741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,29 +766,29 @@
     <col min="14" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-    </row>
-    <row r="2" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:13" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
-    </row>
-    <row r="3" spans="1:11" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
@@ -790,11 +799,11 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -807,7 +816,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -824,7 +833,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="D6" s="9" t="s">
         <v>10</v>
@@ -839,7 +848,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="D7" s="9" t="s">
         <v>13</v>
@@ -854,7 +863,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="D8" s="9" t="s">
         <v>15</v>
@@ -869,7 +878,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="D9" s="9" t="s">
         <v>17</v>
@@ -884,7 +893,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
@@ -894,7 +903,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -904,7 +913,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
@@ -937,6 +946,12 @@
       </c>
       <c r="K12" s="12" t="s">
         <v>32</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -950,11 +965,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,33 +989,33 @@
     <col min="13" max="16384" width="12.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6"/>
       <c r="E2" s="3"/>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1011,12 +1026,12 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1047,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1066,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="D6" s="9" t="s">
@@ -1068,7 +1083,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="D7" s="9" t="s">
@@ -1085,7 +1100,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="D8" s="9" t="s">
@@ -1102,7 +1117,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="D9" s="9" t="s">
@@ -1119,7 +1134,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1135,14 +1150,14 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:12" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
@@ -1175,6 +1190,12 @@
       </c>
       <c r="K12" s="12" t="s">
         <v>32</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
